--- a/[Book]《The Little Schemer》/参数个数属性返回值.xlsx
+++ b/[Book]《The Little Schemer》/参数个数属性返回值.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,14 +85,66 @@
   </si>
   <si>
     <t>lat?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list里面是否每个成员都是atom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个atom是否相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是个空list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list里面的一员是否含有 atom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove a member (with the first occurrence of the atom) from list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,6 +234,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -243,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,10 +333,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,7 +367,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,25 +542,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="6" width="16.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="1.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5546875" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="3:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:8" ht="8.25" customHeight="1"/>
+    <row r="3" spans="2:8" s="2" customFormat="1">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -520,13 +578,17 @@
       <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="3:7" s="3" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" customHeight="1">
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
@@ -541,7 +603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" ht="15.75" customHeight="1">
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -556,7 +618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" ht="15.75" customHeight="1">
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -573,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" ht="15.75" customHeight="1">
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
@@ -587,8 +649,11 @@
       <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" customHeight="1">
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
@@ -603,7 +668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" ht="15.75" customHeight="1">
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
@@ -619,47 +684,137 @@
       <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="12" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5"/>
       <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="H12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" customHeight="1">
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="16" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="19" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="20" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="25" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/[Book]《The Little Schemer》/参数个数属性返回值.xlsx
+++ b/[Book]《The Little Schemer》/参数个数属性返回值.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,8 +143,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,9 +333,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,6 +368,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -542,27 +544,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="16.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.5546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5" style="6" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="8.25" customHeight="1"/>
-    <row r="3" spans="2:8" s="2" customFormat="1">
+    <row r="1" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -582,13 +584,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="3" customFormat="1" ht="15" thickBot="1">
+    <row r="4" spans="2:8" s="3" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1">
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
@@ -603,7 +605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1">
+    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -618,7 +620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" customHeight="1">
+    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -635,7 +637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.75" customHeight="1">
+    <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
@@ -653,7 +655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1">
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
@@ -668,7 +670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1">
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
@@ -688,8 +690,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1">
+    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
@@ -710,7 +712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" customHeight="1">
+    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
@@ -727,7 +729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15.75" customHeight="1">
+    <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
@@ -750,8 +752,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1">
+    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
@@ -774,7 +776,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
@@ -792,29 +794,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="31" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="32" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/[Book]《The Little Schemer》/参数个数属性返回值.xlsx
+++ b/[Book]《The Little Schemer》/参数个数属性返回值.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>first</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 第3个参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入一个atom到一个list里面去</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H40"/>
+  <dimension ref="B1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -557,14 +569,14 @@
     <col min="2" max="2" width="4.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="16.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.5" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="5" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -578,19 +590,22 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="3" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" s="3" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
@@ -601,11 +616,12 @@
         <v>5</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -616,11 +632,12 @@
         <v>5</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -633,11 +650,12 @@
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
@@ -648,14 +666,15 @@
         <v>8</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
@@ -666,11 +685,12 @@
         <v>6</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
@@ -683,15 +703,16 @@
       <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
@@ -705,14 +726,15 @@
         <v>8</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
@@ -725,11 +747,12 @@
       <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
@@ -745,15 +768,16 @@
       <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
@@ -769,14 +793,15 @@
       <c r="F16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
@@ -790,25 +815,51 @@
         <v>21</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/[Book]《The Little Schemer》/参数个数属性返回值.xlsx
+++ b/[Book]《The Little Schemer》/参数个数属性返回值.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第2个参数属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>null?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,15 +136,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>insertL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入一个atom到一个list里面去[从右边插]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入一个atom到一个list里面去[从左边插]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atom[new]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atom[old]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subst2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2参数属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换list里面第一个出现的匹配项的atom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似或 ||</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multirember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atom2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atom1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiinsertR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除list里面所有匹配的atom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>insertR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 第3个参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入一个atom到一个list里面去</t>
+    <t>insertR 的多重版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiinsertL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertL 的多重版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multisubst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换list里面所有匹配的atom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换list里面第一个匹配的atom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用前面3个基本运算定义出来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,6 +364,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,26 +675,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I40"/>
+  <dimension ref="B1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
-    <col min="5" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="39.5" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -587,25 +707,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" s="3" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" s="3" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
@@ -617,11 +740,12 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -633,11 +757,12 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H6" s="5"/>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -651,13 +776,14 @@
         <v>8</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H7" s="5"/>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -667,16 +793,17 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -686,38 +813,40 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H9" s="5"/>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -727,139 +856,387 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H12" s="5"/>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H13" s="5"/>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="H14" s="5"/>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="H16" s="5"/>
+      <c r="I16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="5"/>
+      <c r="I17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="J27" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="J28" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="J30" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/[Book]《The Little Schemer》/参数个数属性返回值.xlsx
+++ b/[Book]《The Little Schemer》/参数个数属性返回值.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否是个空list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>list里面的一员是否含有 atom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,7 +256,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用前面3个基本运算定义出来</t>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用前面add1,sub1,zero?3个基本运算定义出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addtup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把数组里面的数字累加的结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用+和sub1来实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tup+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把2组数字分别相加，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似 &amp;&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是个空list/空tup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tup[长度与第1参相同]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quote()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回一个空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +734,8 @@
   <dimension ref="B1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -687,7 +744,8 @@
     <col min="2" max="2" width="4.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="16.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.375" style="1" customWidth="1"/>
@@ -707,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>2</v>
@@ -798,7 +856,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -843,7 +901,7 @@
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
@@ -883,12 +941,12 @@
         <v>12</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -908,16 +966,16 @@
         <v>12</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -934,15 +992,15 @@
         <v>20</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -959,19 +1017,19 @@
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>8</v>
@@ -981,24 +1039,24 @@
         <v>8</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>8</v>
@@ -1008,24 +1066,24 @@
         <v>8</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>8</v>
@@ -1035,27 +1093,27 @@
         <v>8</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="1">
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>8</v>
@@ -1064,15 +1122,15 @@
         <v>8</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -1089,24 +1147,24 @@
         <v>8</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -1116,24 +1174,24 @@
         <v>8</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>8</v>
@@ -1143,24 +1201,24 @@
         <v>8</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>8</v>
@@ -1170,44 +1228,59 @@
         <v>8</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
+      <c r="I27" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
+      <c r="I28" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J28" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -1216,35 +1289,164 @@
         <v>12</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
+      <c r="I30" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J30" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="J36" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/[Book]《The Little Schemer》/参数个数属性返回值.xlsx
+++ b/[Book]《The Little Schemer》/参数个数属性返回值.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,6 +317,26 @@
   </si>
   <si>
     <t>返回一个空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用 &gt; 和 &lt; 号来判断 = 号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样我们就有2个函数来判断2个atoms是否相等了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,11 +751,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J40"/>
+  <dimension ref="B1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1362,7 +1382,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="1" t="s">
         <v>66</v>
       </c>
@@ -1384,7 +1404,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="1" t="s">
         <v>68</v>
       </c>
@@ -1406,7 +1426,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="1" t="s">
         <v>70</v>
       </c>
@@ -1428,7 +1448,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="1" t="s">
         <v>74</v>
       </c>
@@ -1443,10 +1463,79 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/[Book]《The Little Schemer》/参数个数属性返回值.xlsx
+++ b/[Book]《The Little Schemer》/参数个数属性返回值.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="107">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2个atom是否相等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>list里面的一员是否含有 atom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,6 +333,112 @@
   </si>
   <si>
     <t>这样我们就有2个函数来判断2个atoms是否相等了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>÷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除法运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list中元素的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回 lat 中第 n 个元素.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rempick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除 lat 中第 n 个元素.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no-nums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除一个lat中的所有出现的数。</t>
+  </si>
+  <si>
+    <t>all-nums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它从一个lat中抽取出所有的数构成一个tup。</t>
+  </si>
+  <si>
+    <t>eqan?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个非数字atom是否相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不管是 num 还是非num的atom都可以用这个来判断了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>occur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述一个lat中出现原子a的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅当n为1时(one? n)为#t真，否则为#f假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rember*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,12 +471,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -418,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,6 +553,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -751,17 +862,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K40"/>
+  <dimension ref="B1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
@@ -785,13 +896,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>2</v>
@@ -807,6 +918,9 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,6 +938,9 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,6 +958,9 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -860,6 +980,9 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -876,10 +999,13 @@
         <v>12</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
@@ -897,6 +1023,9 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -915,13 +1044,13 @@
         <v>12</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
@@ -961,12 +1090,12 @@
         <v>12</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -986,16 +1115,16 @@
         <v>12</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -1012,15 +1141,15 @@
         <v>20</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1037,19 +1166,19 @@
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>8</v>
@@ -1059,24 +1188,24 @@
         <v>8</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>8</v>
@@ -1086,24 +1215,24 @@
         <v>8</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>8</v>
@@ -1113,27 +1242,27 @@
         <v>8</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1">
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>8</v>
@@ -1142,15 +1271,15 @@
         <v>8</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -1167,24 +1296,24 @@
         <v>8</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -1194,24 +1323,24 @@
         <v>8</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>8</v>
@@ -1221,24 +1350,24 @@
         <v>8</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>8</v>
@@ -1248,59 +1377,68 @@
         <v>8</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -1309,126 +1447,126 @@
         <v>12</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
@@ -1445,12 +1583,12 @@
         <v>12</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -1460,24 +1598,24 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="J36" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -1487,19 +1625,19 @@
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -1509,19 +1647,19 @@
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -1529,13 +1667,258 @@
         <v>12</v>
       </c>
       <c r="J39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K39" s="6" t="s">
+    </row>
+    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B45" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C52" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
